--- a/ajandekajanlo_adatbazis.xlsx
+++ b/ajandekajanlo_adatbazis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Vizsgaremek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745E5502-8BFB-4470-AFDF-7AF4A003712D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609517AC-CF26-4771-947D-46C2E2C105A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="194">
   <si>
     <t>id</t>
   </si>
@@ -605,6 +605,18 @@
   </si>
   <si>
     <t>https://www.kreativhobby.hu/ajandekotletek-2117</t>
+  </si>
+  <si>
+    <t>https://rajzfilmjatekok.hu/altalanos-egyeb-jatekok-669/korosztaly-8-15-1924/mr-bean-teddy-macival-plussfigura-30-cm</t>
+  </si>
+  <si>
+    <t>https://bikepro.hu/?gad_source=1&amp;gad_campaignid=22455896074&amp;gbraid=0AAAAACnIVpEk9wRPrp8TaMemVMnX1lbtZ&amp;gclid=Cj0KCQjw267GBhCSARIsAOjVJ4El1gIlTErxWLvTJVvviq4yn42SVjjfXtPmOAeLUzSheGJcAGMGxvUaAhdiEALw_wcB</t>
+  </si>
+  <si>
+    <t>https://www.alza.hu/laptop-taskak/18843319.htm?kampan=adw4_prislusenstvi-pro-ittv_bee_gen_obecna_prislusenstvi-pro-ittv-laptop-taskak-c18843319&amp;ppcbee-adtext-variant=rsa_auto_gen_long&amp;gad_source=1&amp;gad_campaignid=12608113119&amp;gbraid=0AAAAAD2xsm4SsZ1upBzN_hPdVRYHG_UNP&amp;gclid=Cj0KCQjw267GBhCSARIsAOjVJ4FbrHdCV1soIb-XCbtTqrX2cm6kTzegwhFdIXTF8SoxyBJgu1_SuOEaAiwLEALw_wcB</t>
+  </si>
+  <si>
+    <t>https://www.kertaktiv.hu/kerti-napernyo-300-cm-aga-mr2025-darkgreen-soetetzoeld?gad_source=1&amp;gad_campaignid=22318259162&amp;gbraid=0AAAAACxMsNJB7LTaY1zsE9hoPkgLBYI8i&amp;gclid=Cj0KCQjw267GBhCSARIsAOjVJ4F60_PVK_ofEa47-4A7pMZUWbh_44yIq8Hfl3ejXk3RkG4z6r1gT2oaAubDEALw_wcB</t>
   </si>
 </sst>
 </file>
@@ -614,12 +626,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -837,73 +857,76 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3258,7 +3281,7 @@
         <v>45902.375</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -3275,7 +3298,7 @@
         <v>45902.375</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -3573,8 +3596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3586,7 +3609,7 @@
     <col min="5" max="5" width="7.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="98.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="216.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="15.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="18"/>
   </cols>
@@ -4180,7 +4203,7 @@
       <c r="F25" s="18">
         <v>4</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="23" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4203,6 +4226,9 @@
       <c r="F26" s="18">
         <v>8</v>
       </c>
+      <c r="H26" s="18" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
@@ -4223,6 +4249,9 @@
       <c r="F27" s="18">
         <v>6</v>
       </c>
+      <c r="H27" s="18" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
@@ -4243,6 +4272,9 @@
       <c r="F28" s="18">
         <v>4</v>
       </c>
+      <c r="H28" s="18" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
@@ -4257,11 +4289,14 @@
       <c r="D29" s="18">
         <v>42141</v>
       </c>
-      <c r="E29" s="18" t="s">
-        <v>152</v>
+      <c r="E29" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="F29" s="18">
         <v>6</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -4695,7 +4730,9 @@
     <hyperlink ref="H9" r:id="rId7" xr:uid="{041BEECD-A10B-4BB1-8841-FE4443642A34}"/>
     <hyperlink ref="H8" r:id="rId8" xr:uid="{A7AF6854-22AC-4308-ABE3-1FFB47FA7B7C}"/>
     <hyperlink ref="H10" r:id="rId9" xr:uid="{E23DE811-0586-4C40-BD91-AEC064770859}"/>
+    <hyperlink ref="H25" r:id="rId10" xr:uid="{E90759E5-AB8C-4EF8-8B78-86ECC2A3FC03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>